--- a/data.xlsx
+++ b/data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kashiwaba\Documents\Visual Studio 2012\Projects\boosting\adaboost_renshu_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kashiwaba\Documents\GitHub\AdaBoost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6405" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6405" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,18 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>オレンジ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑</t>
-    <rPh sb="0" eb="1">
-      <t>ミドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>テスト（橙）</t>
     <rPh sb="4" eb="5">
@@ -179,45 +167,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1079582239720035"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -240,10 +190,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet2!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -291,63 +241,165 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet2!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.891</c:v>
+                  <c:v>9.9833416646828155E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.768</c:v>
+                  <c:v>0.19866933079506122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.637</c:v>
+                  <c:v>0.29552020666133955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.504</c:v>
+                  <c:v>0.38941834230865052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.375</c:v>
+                  <c:v>0.47942553860420301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.256</c:v>
+                  <c:v>0.56464247339503537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.153</c:v>
+                  <c:v>0.64421768723769102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0720000000000001</c:v>
+                  <c:v>0.71735609089952279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0190000000000001</c:v>
+                  <c:v>0.78332690962748341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.8414709848078965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0210000000000001</c:v>
+                  <c:v>0.89120736006143542</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>0.93203908596722629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2070000000000003</c:v>
+                  <c:v>0.96355818541719296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3839999999999997</c:v>
+                  <c:v>0.98544972998846014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.625</c:v>
+                  <c:v>0.99749498660405445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99957360304150511</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99166481045246857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97384763087819515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94630008768741447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90929742682568171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86320936664887371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80849640381959009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74570521217672026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67546318055115095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59847214410395655</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51550137182146416</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42737988023382978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33498815015590511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23924932921398243</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14112000805986721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1580662433290491E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.8374143427580086E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,8 +414,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284356320"/>
-        <c:axId val="284357104"/>
+        <c:axId val="292158480"/>
+        <c:axId val="292152992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -383,7 +435,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -395,78 +447,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>Sheet2!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.35</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,7 +540,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -500,78 +552,216 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:f>Sheet2!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:f>Sheet2!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$20:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,11 +776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284356320"/>
-        <c:axId val="284357104"/>
+        <c:axId val="292158480"/>
+        <c:axId val="292152992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284356320"/>
+        <c:axId val="292158480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,12 +837,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284357104"/>
+        <c:crossAx val="292152992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284357104"/>
+        <c:axId val="292152992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +899,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284356320"/>
+        <c:crossAx val="292158480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,801 +949,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9833416646828155E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19866933079506122</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29552020666133955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38941834230865052</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.47942553860420301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56464247339503537</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64421768723769102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.71735609089952279</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78332690962748341</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8414709848078965</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89120736006143542</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93203908596722629</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96355818541719296</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98544972998846014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99749498660405445</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99957360304150511</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99166481045246857</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.97384763087819515</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94630008768741447</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.90929742682568171</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86320936664887371</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.80849640381959009</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.74570521217672026</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.67546318055115095</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.59847214410395655</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.51550137182146416</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.42737988023382978</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33498815015590511</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.23924932921398243</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.14112000805986721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.1580662433290491E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-5.8374143427580086E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="284361416"/>
-        <c:axId val="284358280"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$14:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$14:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$20:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$20:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="284361416"/>
-        <c:axId val="284358280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="284361416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284358280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="284358280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284361416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1870,8 +1265,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284360240"/>
-        <c:axId val="284358672"/>
+        <c:axId val="335176360"/>
+        <c:axId val="335180672"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2100,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284360240"/>
-        <c:axId val="284358672"/>
+        <c:axId val="335176360"/>
+        <c:axId val="335180672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284360240"/>
+        <c:axId val="335176360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,12 +1556,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284358672"/>
+        <c:crossAx val="335180672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284358672"/>
+        <c:axId val="335180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +1618,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284360240"/>
+        <c:crossAx val="335176360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2272,7 +1667,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2589,8 +1984,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284360632"/>
-        <c:axId val="284361808"/>
+        <c:axId val="335177144"/>
+        <c:axId val="335178320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2747,11 +2142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284360632"/>
-        <c:axId val="284361808"/>
+        <c:axId val="335177144"/>
+        <c:axId val="335178320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284360632"/>
+        <c:axId val="335177144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,12 +2203,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284361808"/>
+        <c:crossAx val="335178320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284361808"/>
+        <c:axId val="335178320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2265,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284360632"/>
+        <c:crossAx val="335177144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2919,7 +2314,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3236,8 +2631,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307403088"/>
-        <c:axId val="307403480"/>
+        <c:axId val="335177928"/>
+        <c:axId val="335179496"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3526,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307403088"/>
-        <c:axId val="307403480"/>
+        <c:axId val="335177928"/>
+        <c:axId val="335179496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307403088"/>
+        <c:axId val="335177928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,12 +2982,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307403480"/>
+        <c:crossAx val="335179496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307403480"/>
+        <c:axId val="335179496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3044,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307403088"/>
+        <c:crossAx val="335177928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3858,46 +3253,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5962,558 +5317,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6548,7 +5352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6585,7 +5389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6622,7 +5426,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6922,296 +5726,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>C2^3-C2^2-C2+2</f>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2">
-        <v>1.3</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">C3^3-C3^2-C3+2</f>
-        <v>1.891</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.25</v>
-      </c>
-      <c r="J3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C4">
-        <v>0.2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1.768</v>
-      </c>
-      <c r="F4">
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <v>1.6</v>
-      </c>
-      <c r="I4">
-        <v>0.3</v>
-      </c>
-      <c r="J4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.637</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-      <c r="G5">
-        <v>1.3</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.504</v>
-      </c>
-      <c r="F6">
-        <v>0.45</v>
-      </c>
-      <c r="G6">
-        <v>1.35</v>
-      </c>
-      <c r="I6">
-        <v>0.4</v>
-      </c>
-      <c r="J6">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.375</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.9</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.256</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
-        <v>0.6</v>
-      </c>
-      <c r="J8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.153</v>
-      </c>
-      <c r="F9">
-        <v>0.35</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0.35</v>
-      </c>
-      <c r="J9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>1.2</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C11">
-        <v>0.9</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.0190000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11">
-        <v>0.6</v>
-      </c>
-      <c r="I11">
-        <v>0.45</v>
-      </c>
-      <c r="J11">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.0210000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C14">
-        <v>1.2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.0880000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C15">
-        <v>1.3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.2070000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C16">
-        <v>1.4</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.3839999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17">
-        <v>1.5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.625</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7222,10 +5736,10 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -7456,7 +5970,7 @@
         <v>0.89120736006143542</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -7537,7 +6051,7 @@
         <v>0.99166481045246857</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
@@ -7706,7 +6220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7722,11 +6236,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -7738,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
@@ -7750,10 +6264,10 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
